--- a/result/Result.xlsx
+++ b/result/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Success : Successfully logged in and  Verified ID, Name and Email id from API and provided during Registration </t>
+  </si>
+  <si>
+    <t>Failed: Not able to Hit API Response code is &lt;Response [401]&gt; and  Response from API is  Inavlid Token</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -98,6 +101,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF35FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC2C03"/>
       </patternFill>
     </fill>
     <fill>
@@ -134,16 +147,19 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -442,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -474,7 +490,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>44633.56510429104</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -488,7 +504,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="6" t="n">
         <v>44633.56686720206</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -502,7 +518,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="6" t="n">
         <v>44633.56704217695</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -516,7 +532,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="6" t="n">
         <v>44633.57320982088</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -530,7 +546,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="6" t="n">
         <v>44633.57321477314</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -544,7 +560,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="6" t="n">
         <v>44633.57403234567</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -558,7 +574,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="6" t="n">
         <v>44633.57403739095</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -572,7 +588,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="6" t="n">
         <v>44633.57404227614</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -622,6 +638,90 @@
       </c>
       <c r="D12" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>44633.66879853904</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>44633.66880379433</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>44633.66880904941</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>44633.70865128705</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>44633.70865628787</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>44633.70866138727</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
